--- a/config_Release/fish_qys_match_server.xlsx
+++ b/config_Release/fish_qys_match_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -244,11 +244,11 @@
   </si>
   <si>
     <t>id|配置id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>no|行号</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4</t>
@@ -280,7 +280,7 @@
   </si>
   <si>
     <t>time|免费升级时间</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>unlock_money|每秒变动价格</t>
@@ -318,47 +318,47 @@
   </si>
   <si>
     <t>41,41</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>42,42</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>43,43</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>44,44</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>45,45</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>46,46</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>47,47</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>48,48</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>49,49</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>50,50</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>51,51</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -375,7 +375,7 @@
       </rPr>
       <t>2,52</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -392,7 +392,7 @@
       </rPr>
       <t>3,53</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>fish_match_pool_proportion</t>
@@ -459,7 +459,7 @@
   </si>
   <si>
     <t>cd</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>activity_id</t>
@@ -483,19 +483,19 @@
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>rank_min|百分比</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>interval_time|秒</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>activity_id</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -512,11 +512,11 @@
       </rPr>
       <t>4,35,</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>weight</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -533,7 +533,7 @@
       </rPr>
       <t>,1,</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -550,7 +550,7 @@
       </rPr>
       <t>,1,</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -567,7 +567,7 @@
       </rPr>
       <t>,1,</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>goods_supply_id</t>
@@ -575,7 +575,7 @@
   </si>
   <si>
     <t>2000,10000,20000,40000,</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8</t>
@@ -590,11 +590,11 @@
   </si>
   <si>
     <t>supply_pro|触发概率</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>bullet_index|炮台索引</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>price|四个阶段对应的价格</t>
@@ -602,7 +602,7 @@
   </si>
   <si>
     <t>rank_max</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1005,7 +1005,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1054,12 +1054,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF444444"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1234,23 +1228,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1300,31 +1294,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3153,7 +3142,7 @@
       <c r="A53">
         <v>20051</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="24" t="s">
         <v>157</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -3182,7 +3171,7 @@
       <c r="A54">
         <v>20052</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="24" t="s">
         <v>158</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -3211,7 +3200,7 @@
       <c r="A55">
         <v>20053</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="24" t="s">
         <v>159</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -3240,7 +3229,7 @@
       <c r="A56">
         <v>20054</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="24" t="s">
         <v>160</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -3269,7 +3258,7 @@
       <c r="A57">
         <v>20055</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="24" t="s">
         <v>161</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -3298,7 +3287,7 @@
       <c r="A58">
         <v>20056</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="24" t="s">
         <v>162</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -3327,7 +3316,7 @@
       <c r="A59">
         <v>20057</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="24" t="s">
         <v>163</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -3356,7 +3345,7 @@
       <c r="A60">
         <v>20058</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="24" t="s">
         <v>164</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -3385,7 +3374,7 @@
       <c r="A61">
         <v>20059</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="24" t="s">
         <v>165</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -3414,7 +3403,7 @@
       <c r="A62">
         <v>20060</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="24" t="s">
         <v>166</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -3443,7 +3432,7 @@
       <c r="A63">
         <v>20061</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="24" t="s">
         <v>167</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -3472,7 +3461,7 @@
       <c r="A64">
         <v>20062</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="24" t="s">
         <v>168</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -3501,7 +3490,7 @@
       <c r="A65">
         <v>20063</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="24" t="s">
         <v>169</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -3530,7 +3519,7 @@
       <c r="A66">
         <v>20064</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="24" t="s">
         <v>170</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -3559,7 +3548,7 @@
       <c r="A67">
         <v>20065</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="24" t="s">
         <v>171</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -3588,7 +3577,7 @@
       <c r="A68">
         <v>20066</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="24" t="s">
         <v>172</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -3617,7 +3606,7 @@
       <c r="A69">
         <v>20067</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -3646,7 +3635,7 @@
       <c r="A70">
         <v>20068</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="24" t="s">
         <v>174</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -3675,7 +3664,7 @@
       <c r="A71">
         <v>20069</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="24" t="s">
         <v>175</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -3704,7 +3693,7 @@
       <c r="A72">
         <v>20070</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="24" t="s">
         <v>176</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -3733,7 +3722,7 @@
       <c r="A73">
         <v>20071</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="24" t="s">
         <v>177</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -3762,7 +3751,7 @@
       <c r="A74">
         <v>20072</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="24" t="s">
         <v>178</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -3791,7 +3780,7 @@
       <c r="A75">
         <v>20073</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="24" t="s">
         <v>179</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -3820,7 +3809,7 @@
       <c r="A76">
         <v>20074</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="24" t="s">
         <v>180</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -3849,7 +3838,7 @@
       <c r="A77">
         <v>20075</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="24" t="s">
         <v>181</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -3878,7 +3867,7 @@
       <c r="A78">
         <v>20076</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="24" t="s">
         <v>182</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -3907,7 +3896,7 @@
       <c r="A79">
         <v>20077</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="24" t="s">
         <v>183</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -3936,7 +3925,7 @@
       <c r="A80">
         <v>20078</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="24" t="s">
         <v>184</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -3965,7 +3954,7 @@
       <c r="A81">
         <v>20079</v>
       </c>
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="24" t="s">
         <v>185</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -3994,7 +3983,7 @@
       <c r="A82">
         <v>20080</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="24" t="s">
         <v>186</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -4023,7 +4012,7 @@
       <c r="A83">
         <v>20081</v>
       </c>
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="24" t="s">
         <v>205</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -4052,7 +4041,7 @@
       <c r="A84">
         <v>20082</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="24" t="s">
         <v>187</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -4081,7 +4070,7 @@
       <c r="A85">
         <v>20083</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="24" t="s">
         <v>188</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -4110,7 +4099,7 @@
       <c r="A86">
         <v>20084</v>
       </c>
-      <c r="B86" s="26" t="s">
+      <c r="B86" s="24" t="s">
         <v>189</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -4139,7 +4128,7 @@
       <c r="A87">
         <v>20085</v>
       </c>
-      <c r="B87" s="26" t="s">
+      <c r="B87" s="24" t="s">
         <v>190</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -4168,7 +4157,7 @@
       <c r="A88">
         <v>20086</v>
       </c>
-      <c r="B88" s="26" t="s">
+      <c r="B88" s="24" t="s">
         <v>191</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -4197,7 +4186,7 @@
       <c r="A89">
         <v>20087</v>
       </c>
-      <c r="B89" s="26" t="s">
+      <c r="B89" s="24" t="s">
         <v>192</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -4226,7 +4215,7 @@
       <c r="A90">
         <v>20088</v>
       </c>
-      <c r="B90" s="26" t="s">
+      <c r="B90" s="24" t="s">
         <v>193</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -4255,7 +4244,7 @@
       <c r="A91">
         <v>20089</v>
       </c>
-      <c r="B91" s="26" t="s">
+      <c r="B91" s="24" t="s">
         <v>194</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -4284,7 +4273,7 @@
       <c r="A92">
         <v>20090</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="24" t="s">
         <v>195</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -4313,7 +4302,7 @@
       <c r="A93">
         <v>20091</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="24" t="s">
         <v>196</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -4342,7 +4331,7 @@
       <c r="A94">
         <v>20092</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="B94" s="24" t="s">
         <v>197</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -4371,7 +4360,7 @@
       <c r="A95">
         <v>20093</v>
       </c>
-      <c r="B95" s="26" t="s">
+      <c r="B95" s="24" t="s">
         <v>198</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -4400,7 +4389,7 @@
       <c r="A96">
         <v>20094</v>
       </c>
-      <c r="B96" s="26" t="s">
+      <c r="B96" s="24" t="s">
         <v>199</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -4429,7 +4418,7 @@
       <c r="A97">
         <v>20095</v>
       </c>
-      <c r="B97" s="26" t="s">
+      <c r="B97" s="24" t="s">
         <v>200</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -4458,7 +4447,7 @@
       <c r="A98">
         <v>20096</v>
       </c>
-      <c r="B98" s="26" t="s">
+      <c r="B98" s="24" t="s">
         <v>201</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -4487,7 +4476,7 @@
       <c r="A99">
         <v>20097</v>
       </c>
-      <c r="B99" s="26" t="s">
+      <c r="B99" s="24" t="s">
         <v>202</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -4516,7 +4505,7 @@
       <c r="A100">
         <v>20098</v>
       </c>
-      <c r="B100" s="26" t="s">
+      <c r="B100" s="24" t="s">
         <v>203</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -4545,7 +4534,7 @@
       <c r="A101">
         <v>20099</v>
       </c>
-      <c r="B101" s="26" t="s">
+      <c r="B101" s="24" t="s">
         <v>204</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -5677,7 +5666,7 @@
       <c r="C180" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -5811,7 +5800,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6638,7 +6627,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6648,7 +6637,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -9604,11 +9593,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9656,8 +9645,8 @@
       <c r="A2">
         <v>20000</v>
       </c>
-      <c r="B2" s="24">
-        <v>1593608100</v>
+      <c r="B2">
+        <v>1598963400</v>
       </c>
       <c r="C2" s="8">
         <v>1800</v>
@@ -9682,8 +9671,8 @@
       <c r="A3">
         <v>20001</v>
       </c>
-      <c r="B3" s="24">
-        <v>1594212900</v>
+      <c r="B3">
+        <v>1599136200</v>
       </c>
       <c r="C3" s="8">
         <v>1800</v>
@@ -9708,8 +9697,8 @@
       <c r="A4">
         <v>20002</v>
       </c>
-      <c r="B4" s="24">
-        <v>1594817700</v>
+      <c r="B4">
+        <v>1599309000</v>
       </c>
       <c r="C4" s="8">
         <v>1800</v>
@@ -9734,8 +9723,8 @@
       <c r="A5">
         <v>20003</v>
       </c>
-      <c r="B5" s="24">
-        <v>1595422500</v>
+      <c r="B5">
+        <v>1599568200</v>
       </c>
       <c r="C5" s="8">
         <v>1800</v>
@@ -9760,8 +9749,8 @@
       <c r="A6">
         <v>20004</v>
       </c>
-      <c r="B6" s="25">
-        <v>1596027300</v>
+      <c r="B6">
+        <v>1599741000</v>
       </c>
       <c r="C6" s="8">
         <v>1800</v>
@@ -9786,8 +9775,8 @@
       <c r="A7">
         <v>20005</v>
       </c>
-      <c r="B7" s="25">
-        <v>1596632100</v>
+      <c r="B7">
+        <v>1599913800</v>
       </c>
       <c r="C7" s="8">
         <v>1800</v>
@@ -9812,8 +9801,8 @@
       <c r="A8">
         <v>20006</v>
       </c>
-      <c r="B8" s="25">
-        <v>1597236900</v>
+      <c r="B8">
+        <v>1600173000</v>
       </c>
       <c r="C8" s="8">
         <v>1800</v>
@@ -9838,8 +9827,8 @@
       <c r="A9">
         <v>20007</v>
       </c>
-      <c r="B9" s="25">
-        <v>1597841700</v>
+      <c r="B9">
+        <v>1600345800</v>
       </c>
       <c r="C9" s="8">
         <v>1800</v>
@@ -9864,8 +9853,8 @@
       <c r="A10">
         <v>20008</v>
       </c>
-      <c r="B10" s="25">
-        <v>1598446500</v>
+      <c r="B10">
+        <v>1600518600</v>
       </c>
       <c r="C10" s="8">
         <v>1800</v>
@@ -9890,8 +9879,8 @@
       <c r="A11">
         <v>20009</v>
       </c>
-      <c r="B11" s="25">
-        <v>1599051300</v>
+      <c r="B11">
+        <v>1600777800</v>
       </c>
       <c r="C11" s="8">
         <v>1800</v>
@@ -9917,7 +9906,7 @@
         <v>20010</v>
       </c>
       <c r="B12">
-        <v>1599656100</v>
+        <v>1600950600</v>
       </c>
       <c r="C12" s="8">
         <v>1800</v>
@@ -9943,7 +9932,7 @@
         <v>20011</v>
       </c>
       <c r="B13">
-        <v>1600260900</v>
+        <v>1601123400</v>
       </c>
       <c r="C13" s="8">
         <v>1800</v>
@@ -9969,7 +9958,7 @@
         <v>20012</v>
       </c>
       <c r="B14">
-        <v>1600865700</v>
+        <v>1601382600</v>
       </c>
       <c r="C14" s="8">
         <v>1800</v>
@@ -9995,7 +9984,7 @@
         <v>20013</v>
       </c>
       <c r="B15">
-        <v>1601470500</v>
+        <v>1601555400</v>
       </c>
       <c r="C15" s="8">
         <v>1800</v>
@@ -10021,7 +10010,7 @@
         <v>20014</v>
       </c>
       <c r="B16">
-        <v>1602075300</v>
+        <v>1601728200</v>
       </c>
       <c r="C16" s="8">
         <v>1800</v>
@@ -10047,7 +10036,7 @@
         <v>20015</v>
       </c>
       <c r="B17">
-        <v>1602680100</v>
+        <v>1601987400</v>
       </c>
       <c r="C17" s="8">
         <v>1800</v>
@@ -10073,7 +10062,7 @@
         <v>20016</v>
       </c>
       <c r="B18">
-        <v>1603284900</v>
+        <v>1602160200</v>
       </c>
       <c r="C18" s="8">
         <v>1800</v>
@@ -10099,7 +10088,7 @@
         <v>20017</v>
       </c>
       <c r="B19">
-        <v>1603889700</v>
+        <v>1602333000</v>
       </c>
       <c r="C19" s="8">
         <v>1800</v>
@@ -10125,7 +10114,7 @@
         <v>20018</v>
       </c>
       <c r="B20">
-        <v>1604494500</v>
+        <v>1602592200</v>
       </c>
       <c r="C20" s="8">
         <v>1800</v>
@@ -10151,7 +10140,7 @@
         <v>20019</v>
       </c>
       <c r="B21">
-        <v>1605099300</v>
+        <v>1602765000</v>
       </c>
       <c r="C21" s="8">
         <v>1800</v>
@@ -10177,7 +10166,7 @@
         <v>20020</v>
       </c>
       <c r="B22">
-        <v>1605704100</v>
+        <v>1602937800</v>
       </c>
       <c r="C22" s="8">
         <v>1800</v>
@@ -10203,7 +10192,7 @@
         <v>20021</v>
       </c>
       <c r="B23">
-        <v>1606308900</v>
+        <v>1603197000</v>
       </c>
       <c r="C23" s="8">
         <v>1800</v>
@@ -10229,7 +10218,7 @@
         <v>20022</v>
       </c>
       <c r="B24">
-        <v>1606913700</v>
+        <v>1603369800</v>
       </c>
       <c r="C24" s="8">
         <v>1800</v>
@@ -10255,7 +10244,7 @@
         <v>20023</v>
       </c>
       <c r="B25">
-        <v>1607518500</v>
+        <v>1603542600</v>
       </c>
       <c r="C25" s="8">
         <v>1800</v>
@@ -10281,7 +10270,7 @@
         <v>20024</v>
       </c>
       <c r="B26">
-        <v>1608123300</v>
+        <v>1603801800</v>
       </c>
       <c r="C26" s="8">
         <v>1800</v>
@@ -10307,7 +10296,7 @@
         <v>20025</v>
       </c>
       <c r="B27">
-        <v>1608728100</v>
+        <v>1603974600</v>
       </c>
       <c r="C27" s="8">
         <v>1800</v>
@@ -10333,7 +10322,7 @@
         <v>20026</v>
       </c>
       <c r="B28">
-        <v>1609332900</v>
+        <v>1604147400</v>
       </c>
       <c r="C28" s="8">
         <v>1800</v>
@@ -10359,7 +10348,7 @@
         <v>20027</v>
       </c>
       <c r="B29">
-        <v>1609937700</v>
+        <v>1604406600</v>
       </c>
       <c r="C29" s="8">
         <v>1800</v>
@@ -10385,7 +10374,7 @@
         <v>20028</v>
       </c>
       <c r="B30">
-        <v>1610542500</v>
+        <v>1604579400</v>
       </c>
       <c r="C30" s="8">
         <v>1800</v>
@@ -10411,7 +10400,7 @@
         <v>20029</v>
       </c>
       <c r="B31">
-        <v>1611147300</v>
+        <v>1604752200</v>
       </c>
       <c r="C31" s="8">
         <v>1800</v>
@@ -10437,7 +10426,7 @@
         <v>20030</v>
       </c>
       <c r="B32">
-        <v>1611752100</v>
+        <v>1605011400</v>
       </c>
       <c r="C32" s="8">
         <v>1800</v>
@@ -10463,7 +10452,7 @@
         <v>20031</v>
       </c>
       <c r="B33">
-        <v>1612356900</v>
+        <v>1605184200</v>
       </c>
       <c r="C33" s="8">
         <v>1800</v>
@@ -10489,7 +10478,7 @@
         <v>20032</v>
       </c>
       <c r="B34">
-        <v>1612961700</v>
+        <v>1605357000</v>
       </c>
       <c r="C34" s="8">
         <v>1800</v>
@@ -10515,7 +10504,7 @@
         <v>20033</v>
       </c>
       <c r="B35">
-        <v>1613566500</v>
+        <v>1605616200</v>
       </c>
       <c r="C35" s="8">
         <v>1800</v>
@@ -10541,7 +10530,7 @@
         <v>20034</v>
       </c>
       <c r="B36">
-        <v>1614171300</v>
+        <v>1605789000</v>
       </c>
       <c r="C36" s="8">
         <v>1800</v>
@@ -10567,7 +10556,7 @@
         <v>20035</v>
       </c>
       <c r="B37">
-        <v>1614776100</v>
+        <v>1605961800</v>
       </c>
       <c r="C37" s="8">
         <v>1800</v>
@@ -10593,7 +10582,7 @@
         <v>20036</v>
       </c>
       <c r="B38">
-        <v>1615380900</v>
+        <v>1606221000</v>
       </c>
       <c r="C38" s="8">
         <v>1800</v>
@@ -10619,7 +10608,7 @@
         <v>20037</v>
       </c>
       <c r="B39">
-        <v>1615985700</v>
+        <v>1606393800</v>
       </c>
       <c r="C39" s="8">
         <v>1800</v>
@@ -10645,7 +10634,7 @@
         <v>20038</v>
       </c>
       <c r="B40">
-        <v>1616590500</v>
+        <v>1606566600</v>
       </c>
       <c r="C40" s="8">
         <v>1800</v>
@@ -10671,7 +10660,7 @@
         <v>20039</v>
       </c>
       <c r="B41">
-        <v>1617195300</v>
+        <v>1606825800</v>
       </c>
       <c r="C41" s="8">
         <v>1800</v>
@@ -10697,7 +10686,7 @@
         <v>20040</v>
       </c>
       <c r="B42">
-        <v>1617800100</v>
+        <v>1606998600</v>
       </c>
       <c r="C42" s="8">
         <v>1800</v>
@@ -10723,7 +10712,7 @@
         <v>20041</v>
       </c>
       <c r="B43">
-        <v>1618404900</v>
+        <v>1607171400</v>
       </c>
       <c r="C43" s="8">
         <v>1800</v>
@@ -10749,7 +10738,7 @@
         <v>20042</v>
       </c>
       <c r="B44">
-        <v>1619009700</v>
+        <v>1607430600</v>
       </c>
       <c r="C44" s="8">
         <v>1800</v>
@@ -10775,7 +10764,7 @@
         <v>20043</v>
       </c>
       <c r="B45">
-        <v>1619614500</v>
+        <v>1607603400</v>
       </c>
       <c r="C45" s="8">
         <v>1800</v>
@@ -10801,7 +10790,7 @@
         <v>20044</v>
       </c>
       <c r="B46">
-        <v>1620219300</v>
+        <v>1607776200</v>
       </c>
       <c r="C46" s="8">
         <v>1800</v>
@@ -10827,7 +10816,7 @@
         <v>20045</v>
       </c>
       <c r="B47">
-        <v>1620824100</v>
+        <v>1608035400</v>
       </c>
       <c r="C47" s="8">
         <v>1800</v>
@@ -10853,7 +10842,7 @@
         <v>20046</v>
       </c>
       <c r="B48">
-        <v>1621428900</v>
+        <v>1608208200</v>
       </c>
       <c r="C48" s="8">
         <v>1800</v>
@@ -10879,7 +10868,7 @@
         <v>20047</v>
       </c>
       <c r="B49">
-        <v>1622033700</v>
+        <v>1608381000</v>
       </c>
       <c r="C49" s="8">
         <v>1800</v>
@@ -10905,7 +10894,7 @@
         <v>20048</v>
       </c>
       <c r="B50">
-        <v>1622638500</v>
+        <v>1608640200</v>
       </c>
       <c r="C50" s="8">
         <v>1800</v>
@@ -10931,7 +10920,7 @@
         <v>20049</v>
       </c>
       <c r="B51">
-        <v>1623243300</v>
+        <v>1608813000</v>
       </c>
       <c r="C51" s="8">
         <v>1800</v>
@@ -10956,8 +10945,8 @@
       <c r="A52">
         <v>20050</v>
       </c>
-      <c r="B52" s="27">
-        <v>1623848100</v>
+      <c r="B52">
+        <v>1608985800</v>
       </c>
       <c r="C52" s="8">
         <v>1800</v>
@@ -10982,8 +10971,8 @@
       <c r="A53">
         <v>20051</v>
       </c>
-      <c r="B53" s="27">
-        <v>1624452900</v>
+      <c r="B53">
+        <v>1609245000</v>
       </c>
       <c r="C53" s="8">
         <v>1800</v>
@@ -11008,8 +10997,8 @@
       <c r="A54">
         <v>20052</v>
       </c>
-      <c r="B54" s="27">
-        <v>1625057700</v>
+      <c r="B54">
+        <v>1609417800</v>
       </c>
       <c r="C54" s="8">
         <v>1800</v>
@@ -11034,8 +11023,8 @@
       <c r="A55">
         <v>20053</v>
       </c>
-      <c r="B55" s="27">
-        <v>1625662500</v>
+      <c r="B55">
+        <v>1609590600</v>
       </c>
       <c r="C55" s="8">
         <v>1800</v>
@@ -11060,8 +11049,8 @@
       <c r="A56">
         <v>20054</v>
       </c>
-      <c r="B56" s="27">
-        <v>1626267300</v>
+      <c r="B56">
+        <v>1609849800</v>
       </c>
       <c r="C56" s="8">
         <v>1800</v>
@@ -11086,8 +11075,8 @@
       <c r="A57">
         <v>20055</v>
       </c>
-      <c r="B57" s="27">
-        <v>1626872100</v>
+      <c r="B57">
+        <v>1610022600</v>
       </c>
       <c r="C57" s="8">
         <v>1800</v>
@@ -11112,8 +11101,8 @@
       <c r="A58">
         <v>20056</v>
       </c>
-      <c r="B58" s="27">
-        <v>1627476900</v>
+      <c r="B58">
+        <v>1610195400</v>
       </c>
       <c r="C58" s="8">
         <v>1800</v>
@@ -11138,8 +11127,8 @@
       <c r="A59">
         <v>20057</v>
       </c>
-      <c r="B59" s="27">
-        <v>1628081700</v>
+      <c r="B59">
+        <v>1610454600</v>
       </c>
       <c r="C59" s="8">
         <v>1800</v>
@@ -11164,8 +11153,8 @@
       <c r="A60">
         <v>20058</v>
       </c>
-      <c r="B60" s="27">
-        <v>1628686500</v>
+      <c r="B60">
+        <v>1610627400</v>
       </c>
       <c r="C60" s="8">
         <v>1800</v>
@@ -11190,8 +11179,8 @@
       <c r="A61">
         <v>20059</v>
       </c>
-      <c r="B61" s="27">
-        <v>1629291300</v>
+      <c r="B61">
+        <v>1610800200</v>
       </c>
       <c r="C61" s="8">
         <v>1800</v>
@@ -11216,8 +11205,8 @@
       <c r="A62">
         <v>20060</v>
       </c>
-      <c r="B62" s="27">
-        <v>1629896100</v>
+      <c r="B62">
+        <v>1611059400</v>
       </c>
       <c r="C62" s="8">
         <v>1800</v>
@@ -11242,8 +11231,8 @@
       <c r="A63">
         <v>20061</v>
       </c>
-      <c r="B63" s="27">
-        <v>1630500900</v>
+      <c r="B63">
+        <v>1611232200</v>
       </c>
       <c r="C63" s="8">
         <v>1800</v>
@@ -11268,8 +11257,8 @@
       <c r="A64">
         <v>20062</v>
       </c>
-      <c r="B64" s="27">
-        <v>1631105700</v>
+      <c r="B64">
+        <v>1611405000</v>
       </c>
       <c r="C64" s="8">
         <v>1800</v>
@@ -11294,8 +11283,8 @@
       <c r="A65">
         <v>20063</v>
       </c>
-      <c r="B65" s="27">
-        <v>1631710500</v>
+      <c r="B65">
+        <v>1611664200</v>
       </c>
       <c r="C65" s="8">
         <v>1800</v>
@@ -11320,8 +11309,8 @@
       <c r="A66">
         <v>20064</v>
       </c>
-      <c r="B66" s="27">
-        <v>1632315300</v>
+      <c r="B66">
+        <v>1611837000</v>
       </c>
       <c r="C66" s="8">
         <v>1800</v>
@@ -11346,8 +11335,8 @@
       <c r="A67">
         <v>20065</v>
       </c>
-      <c r="B67" s="27">
-        <v>1632920100</v>
+      <c r="B67">
+        <v>1612009800</v>
       </c>
       <c r="C67" s="8">
         <v>1800</v>
@@ -11372,8 +11361,8 @@
       <c r="A68">
         <v>20066</v>
       </c>
-      <c r="B68" s="27">
-        <v>1633524900</v>
+      <c r="B68">
+        <v>1612269000</v>
       </c>
       <c r="C68" s="8">
         <v>1800</v>
@@ -11398,8 +11387,8 @@
       <c r="A69">
         <v>20067</v>
       </c>
-      <c r="B69" s="27">
-        <v>1634129700</v>
+      <c r="B69">
+        <v>1612441800</v>
       </c>
       <c r="C69" s="8">
         <v>1800</v>
@@ -11424,8 +11413,8 @@
       <c r="A70">
         <v>20068</v>
       </c>
-      <c r="B70" s="27">
-        <v>1634734500</v>
+      <c r="B70">
+        <v>1612614600</v>
       </c>
       <c r="C70" s="8">
         <v>1800</v>
@@ -11450,8 +11439,8 @@
       <c r="A71">
         <v>20069</v>
       </c>
-      <c r="B71" s="27">
-        <v>1635339300</v>
+      <c r="B71">
+        <v>1612873800</v>
       </c>
       <c r="C71" s="8">
         <v>1800</v>
@@ -11476,8 +11465,8 @@
       <c r="A72">
         <v>20070</v>
       </c>
-      <c r="B72" s="27">
-        <v>1635944100</v>
+      <c r="B72">
+        <v>1613046600</v>
       </c>
       <c r="C72" s="8">
         <v>1800</v>
@@ -11502,8 +11491,8 @@
       <c r="A73">
         <v>20071</v>
       </c>
-      <c r="B73" s="27">
-        <v>1636548900</v>
+      <c r="B73">
+        <v>1613219400</v>
       </c>
       <c r="C73" s="8">
         <v>1800</v>
@@ -11528,8 +11517,8 @@
       <c r="A74">
         <v>20072</v>
       </c>
-      <c r="B74" s="27">
-        <v>1637153700</v>
+      <c r="B74">
+        <v>1613478600</v>
       </c>
       <c r="C74" s="8">
         <v>1800</v>
@@ -11554,8 +11543,8 @@
       <c r="A75">
         <v>20073</v>
       </c>
-      <c r="B75" s="27">
-        <v>1637758500</v>
+      <c r="B75">
+        <v>1613651400</v>
       </c>
       <c r="C75" s="8">
         <v>1800</v>
@@ -11580,8 +11569,8 @@
       <c r="A76">
         <v>20074</v>
       </c>
-      <c r="B76" s="27">
-        <v>1638363300</v>
+      <c r="B76">
+        <v>1613824200</v>
       </c>
       <c r="C76" s="8">
         <v>1800</v>
@@ -11606,8 +11595,8 @@
       <c r="A77">
         <v>20075</v>
       </c>
-      <c r="B77" s="27">
-        <v>1638968100</v>
+      <c r="B77">
+        <v>1614083400</v>
       </c>
       <c r="C77" s="8">
         <v>1800</v>
@@ -11632,8 +11621,8 @@
       <c r="A78">
         <v>20076</v>
       </c>
-      <c r="B78" s="27">
-        <v>1639572900</v>
+      <c r="B78">
+        <v>1614256200</v>
       </c>
       <c r="C78" s="8">
         <v>1800</v>
@@ -11658,8 +11647,8 @@
       <c r="A79">
         <v>20077</v>
       </c>
-      <c r="B79" s="24">
-        <v>1640177700</v>
+      <c r="B79">
+        <v>1614429000</v>
       </c>
       <c r="C79" s="8">
         <v>1800</v>
@@ -11684,8 +11673,8 @@
       <c r="A80">
         <v>20078</v>
       </c>
-      <c r="B80" s="24">
-        <v>1640782500</v>
+      <c r="B80">
+        <v>1614688200</v>
       </c>
       <c r="C80" s="8">
         <v>1800</v>
@@ -11710,8 +11699,8 @@
       <c r="A81">
         <v>20079</v>
       </c>
-      <c r="B81" s="24">
-        <v>1641387300</v>
+      <c r="B81">
+        <v>1614861000</v>
       </c>
       <c r="C81" s="8">
         <v>1800</v>
@@ -11736,8 +11725,8 @@
       <c r="A82">
         <v>20080</v>
       </c>
-      <c r="B82" s="24">
-        <v>1641992100</v>
+      <c r="B82">
+        <v>1615033800</v>
       </c>
       <c r="C82" s="8">
         <v>1800</v>
@@ -11762,8 +11751,8 @@
       <c r="A83">
         <v>20081</v>
       </c>
-      <c r="B83" s="25">
-        <v>1642596900</v>
+      <c r="B83">
+        <v>1615293000</v>
       </c>
       <c r="C83" s="8">
         <v>1800</v>
@@ -11788,8 +11777,8 @@
       <c r="A84">
         <v>20082</v>
       </c>
-      <c r="B84" s="25">
-        <v>1643201700</v>
+      <c r="B84">
+        <v>1615465800</v>
       </c>
       <c r="C84" s="8">
         <v>1800</v>
@@ -11814,8 +11803,8 @@
       <c r="A85">
         <v>20083</v>
       </c>
-      <c r="B85" s="25">
-        <v>1643806500</v>
+      <c r="B85">
+        <v>1615638600</v>
       </c>
       <c r="C85" s="8">
         <v>1800</v>
@@ -11840,8 +11829,8 @@
       <c r="A86">
         <v>20084</v>
       </c>
-      <c r="B86" s="25">
-        <v>1644411300</v>
+      <c r="B86">
+        <v>1615897800</v>
       </c>
       <c r="C86" s="8">
         <v>1800</v>
@@ -11866,8 +11855,8 @@
       <c r="A87">
         <v>20085</v>
       </c>
-      <c r="B87" s="25">
-        <v>1645016100</v>
+      <c r="B87">
+        <v>1616070600</v>
       </c>
       <c r="C87" s="8">
         <v>1800</v>
@@ -11892,8 +11881,8 @@
       <c r="A88">
         <v>20086</v>
       </c>
-      <c r="B88" s="25">
-        <v>1645620900</v>
+      <c r="B88">
+        <v>1616243400</v>
       </c>
       <c r="C88" s="8">
         <v>1800</v>
@@ -11919,7 +11908,7 @@
         <v>20087</v>
       </c>
       <c r="B89">
-        <v>1646225700</v>
+        <v>1616502600</v>
       </c>
       <c r="C89" s="8">
         <v>1800</v>
@@ -11945,7 +11934,7 @@
         <v>20088</v>
       </c>
       <c r="B90">
-        <v>1646830500</v>
+        <v>1616675400</v>
       </c>
       <c r="C90" s="8">
         <v>1800</v>
@@ -11971,7 +11960,7 @@
         <v>20089</v>
       </c>
       <c r="B91">
-        <v>1647435300</v>
+        <v>1616848200</v>
       </c>
       <c r="C91" s="8">
         <v>1800</v>
@@ -11997,7 +11986,7 @@
         <v>20090</v>
       </c>
       <c r="B92">
-        <v>1648040100</v>
+        <v>1617107400</v>
       </c>
       <c r="C92" s="8">
         <v>1800</v>
@@ -12023,7 +12012,7 @@
         <v>20091</v>
       </c>
       <c r="B93">
-        <v>1648644900</v>
+        <v>1617280200</v>
       </c>
       <c r="C93" s="8">
         <v>1800</v>
@@ -12049,7 +12038,7 @@
         <v>20092</v>
       </c>
       <c r="B94">
-        <v>1649249700</v>
+        <v>1617453000</v>
       </c>
       <c r="C94" s="8">
         <v>1800</v>
@@ -12075,7 +12064,7 @@
         <v>20093</v>
       </c>
       <c r="B95">
-        <v>1649854500</v>
+        <v>1617712200</v>
       </c>
       <c r="C95" s="8">
         <v>1800</v>
@@ -12101,7 +12090,7 @@
         <v>20094</v>
       </c>
       <c r="B96">
-        <v>1650459300</v>
+        <v>1617885000</v>
       </c>
       <c r="C96" s="8">
         <v>1800</v>
@@ -12127,7 +12116,7 @@
         <v>20095</v>
       </c>
       <c r="B97">
-        <v>1651064100</v>
+        <v>1618057800</v>
       </c>
       <c r="C97" s="8">
         <v>1800</v>
@@ -12153,7 +12142,7 @@
         <v>20096</v>
       </c>
       <c r="B98">
-        <v>1651668900</v>
+        <v>1618317000</v>
       </c>
       <c r="C98" s="8">
         <v>1800</v>
@@ -12179,7 +12168,7 @@
         <v>20097</v>
       </c>
       <c r="B99">
-        <v>1652273700</v>
+        <v>1618489800</v>
       </c>
       <c r="C99" s="8">
         <v>1800</v>
@@ -12205,7 +12194,7 @@
         <v>20098</v>
       </c>
       <c r="B100">
-        <v>1652878500</v>
+        <v>1618662600</v>
       </c>
       <c r="C100" s="8">
         <v>1800</v>
@@ -12231,7 +12220,7 @@
         <v>20099</v>
       </c>
       <c r="B101">
-        <v>1653483300</v>
+        <v>1618921800</v>
       </c>
       <c r="C101" s="8">
         <v>1800</v>
@@ -12251,6 +12240,201 @@
       <c r="H101" s="8">
         <v>0</v>
       </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B102"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B103"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B104"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B105"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B106"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B107"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B108"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B109"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B110"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B111"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B112"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B115"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B117"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B118"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B141"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B142"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B143"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B144"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B147"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B149"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B150"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B151"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B152"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B153"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B154"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B155"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B156"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B157"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B158"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B159"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B160"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B161"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B162"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B163"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B164"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B165"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B166"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -13460,7 +13644,7 @@
       <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="25" t="s">
         <v>211</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -13477,7 +13661,7 @@
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="25" t="s">
         <v>212</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -13494,7 +13678,7 @@
       <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="25" t="s">
         <v>213</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -13511,7 +13695,7 @@
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="25" t="s">
         <v>214</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -13528,7 +13712,7 @@
       <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="25" t="s">
         <v>215</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -13545,7 +13729,7 @@
       <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>216</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -13556,8 +13740,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="1"/>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.2">
@@ -14004,7 +14188,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config_Release/fish_qys_match_server.xlsx
+++ b/config_Release/fish_qys_match_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="793" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="793" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="match_info" sheetId="2" r:id="rId1"/>
@@ -105,6 +105,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>按周循环
@@ -130,6 +131,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>日期字符串数组，只有这些日期的比赛将会创建
+"2018-10-15",和忽略数据不可共存,日期从小到大排列(会影响上期排名计算)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -749,11 +766,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>"2018-6-25",</t>
+    <t>2,73800,75600,4,73800,75600,6,73800,75600,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2,73800,75600,4,73800,75600,6,73800,75600,</t>
+    <t>indicate_data|强制开启的数据</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -761,7 +778,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,13 +930,6 @@
       <color rgb="FF444444"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2740,7 +2750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -3321,11 +3331,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3333,16 +3343,17 @@
     <col min="1" max="1" width="16.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="8" customWidth="1"/>
     <col min="3" max="3" width="27.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="24.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31" style="8" customWidth="1"/>
-    <col min="7" max="7" width="33.75" style="8" customWidth="1"/>
-    <col min="8" max="8" width="24.125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="37" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="11" style="8"/>
+    <col min="4" max="4" width="26.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="24.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="31" style="8" customWidth="1"/>
+    <col min="8" max="8" width="33.75" style="8" customWidth="1"/>
+    <col min="9" max="9" width="24.125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="37" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>113</v>
       </c>
@@ -3353,443 +3364,443 @@
         <v>117</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F2" s="8">
         <v>5000</v>
       </c>
-      <c r="F2" s="9">
+      <c r="G2" s="9">
         <v>864000</v>
       </c>
-      <c r="G2" s="8">
+      <c r="H2" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="8">
+      <c r="I2" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="25"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="25"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="26"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="26"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="26"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="26"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="26"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="26"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35"/>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41"/>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43"/>
-      <c r="F43" s="9"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44"/>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45"/>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46"/>
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47"/>
-      <c r="F47" s="9"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48"/>
-      <c r="F48" s="9"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49"/>
-      <c r="F49" s="9"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50"/>
-      <c r="F50" s="9"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51"/>
-      <c r="F51" s="9"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="27"/>
-      <c r="F52" s="9"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="27"/>
-      <c r="F53" s="9"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="27"/>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="27"/>
-      <c r="F55" s="9"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="27"/>
-      <c r="F56" s="9"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="27"/>
-      <c r="F57" s="9"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="27"/>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="27"/>
-      <c r="F59" s="9"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="27"/>
-      <c r="F60" s="9"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="27"/>
-      <c r="F61" s="9"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="27"/>
-      <c r="F62" s="9"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="27"/>
-      <c r="F63" s="9"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="27"/>
-      <c r="F64" s="9"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="27"/>
-      <c r="F65" s="9"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="27"/>
-      <c r="F66" s="9"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="27"/>
-      <c r="F67" s="9"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="27"/>
-      <c r="F68" s="9"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="27"/>
-      <c r="F69" s="9"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="27"/>
-      <c r="F70" s="9"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="27"/>
-      <c r="F71" s="9"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="27"/>
-      <c r="F72" s="9"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="27"/>
-      <c r="F73" s="9"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="27"/>
-      <c r="F74" s="9"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="27"/>
-      <c r="F75" s="9"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="27"/>
-      <c r="F76" s="9"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="27"/>
-      <c r="F77" s="9"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="27"/>
-      <c r="F78" s="9"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="25"/>
-      <c r="F79" s="9"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="25"/>
-      <c r="F80" s="9"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="25"/>
-      <c r="F81" s="9"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="25"/>
-      <c r="F82" s="9"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="26"/>
-      <c r="F83" s="9"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="26"/>
-      <c r="F84" s="9"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="26"/>
-      <c r="F85" s="9"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="26"/>
-      <c r="F86" s="9"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="26"/>
-      <c r="F87" s="9"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="26"/>
-      <c r="F88" s="9"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89"/>
-      <c r="F89" s="9"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90"/>
-      <c r="F90" s="9"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91"/>
-      <c r="F91" s="9"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92"/>
-      <c r="F92" s="9"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93"/>
-      <c r="F93" s="9"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="25"/>
-      <c r="F94" s="9"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="25"/>
-      <c r="F95" s="9"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="25"/>
-      <c r="F96" s="9"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="26"/>
-      <c r="F97" s="9"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="26"/>
-      <c r="F98" s="9"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="26"/>
-      <c r="F99" s="9"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="26"/>
-      <c r="F100" s="9"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="26"/>
-      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
